--- a/public/excel/job.xlsx
+++ b/public/excel/job.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="1360" windowWidth="25360" windowHeight="17300" tabRatio="500"/>
+    <workbookView xWindow="1300" yWindow="1020" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -21,51 +21,51 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李锦发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑经铧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李桂龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒲元敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品设计师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全栈攻城狮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iOS 攻城狮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端攻城狮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓哥</t>
+    <t>Summer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aufree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sumer Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kelvin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Designer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS Developer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full Stack Web Developer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front End Developer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android Developer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSITION</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +84,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -110,8 +119,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -446,57 +456,57 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/job.xlsx
+++ b/public/excel/job.xlsx
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sumer Min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Kelvin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +62,10 @@
   </si>
   <si>
     <t>POSITION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super Min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,17 +456,17 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,23 +490,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
